--- a/docentes/Sánchez Sánchez Miguel - Estadisticos 20242.xlsx
+++ b/docentes/Sánchez Sánchez Miguel - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>Mat</t>
   </si>
@@ -76,100 +76,22 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
     <t>ESTRADA</t>
   </si>
   <si>
-    <t>IBARRA</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>PELAYO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>BERTELY</t>
-  </si>
-  <si>
     <t>CORTES</t>
   </si>
   <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
     <t>SAN JUAN</t>
   </si>
   <si>
-    <t>ZAYAS</t>
-  </si>
-  <si>
-    <t>CAMPOS</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>GALINDO</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
+    <t>CARLOS</t>
   </si>
   <si>
     <t>JOSE MARCOS</t>
-  </si>
-  <si>
-    <t>ARMANDO</t>
-  </si>
-  <si>
-    <t>KEVIN SANTIAGO</t>
-  </si>
-  <si>
-    <t>IVAN JESUS</t>
-  </si>
-  <si>
-    <t>LUIS PABLO</t>
-  </si>
-  <si>
-    <t>ABRAHAN</t>
-  </si>
-  <si>
-    <t>AARON</t>
-  </si>
-  <si>
-    <t>MIGUEL</t>
-  </si>
-  <si>
-    <t>DANIEL DE JESUS</t>
-  </si>
-  <si>
-    <t>MICHEL LEONEL</t>
-  </si>
-  <si>
-    <t>YURI MONSERRAT</t>
   </si>
 </sst>
 </file>
@@ -596,7 +518,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -605,13 +527,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -693,16 +609,19 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>82.61</v>
+      </c>
+      <c r="H2">
+        <v>7.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -713,18 +632,15 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
         <v>0</v>
       </c>
     </row>
@@ -739,16 +655,19 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>84.62</v>
+      </c>
+      <c r="H4">
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>
@@ -807,16 +726,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>78.26000000000001</v>
+        <v>82.61</v>
       </c>
       <c r="H2">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -827,18 +746,15 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
         <v>0</v>
       </c>
     </row>
@@ -865,7 +781,7 @@
         <v>84.62</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +791,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -910,16 +826,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920317</v>
+        <v>23330051920301</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -928,7 +844,7 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -936,252 +852,22 @@
         <v>23330051920317</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>23330051920295</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>23330051920296</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>23330051920309</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>23330051920294</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>23330051920365</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>23330051920363</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>23330051920284</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>23330051920285</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>23330051920299</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>23330051920326</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
